--- a/AddDevicesDialog/devices.xlsx
+++ b/AddDevicesDialog/devices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>名称</t>
   </si>
@@ -46,7 +46,7 @@
     <t>FF-FF-FF-00-11-22 33-01</t>
   </si>
   <si>
-    <t>cb-b3-38-6b ce 16 ec 89 72 38 27 70 4b d3 af 99</t>
+    <t>cb-b3-38-6b ce 16 ec 89 72 38 27 70 4b d3 b1-02</t>
   </si>
   <si>
     <t>导入节点4</t>
@@ -55,10 +55,19 @@
     <t>测试节点</t>
   </si>
   <si>
-    <t>FFFF FF 00 11 22 33 02</t>
-  </si>
-  <si>
-    <t>cb-b3-38-6b ce 16 ec 89 72 38 27 70 4b d3 af F1</t>
+    <t>FFFF FF 00 11 22 34 09</t>
+  </si>
+  <si>
+    <t>cb-b3-38-6b ce 16 ec 89 72 38 27 70 4b d3 a1 F1</t>
+  </si>
+  <si>
+    <t>导入节点6</t>
+  </si>
+  <si>
+    <t>FFFF FF 00 11 22 34-a5</t>
+  </si>
+  <si>
+    <t>cb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB F1</t>
   </si>
 </sst>
 </file>
@@ -66,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -81,17 +90,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,46 +165,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,68 +197,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,19 +242,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,25 +392,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,133 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,35 +436,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,10 +477,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -510,165 +508,176 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,13 +1031,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="11.6307692307692" customWidth="1"/>
@@ -1092,6 +1101,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/AddDevicesDialog/devices.xlsx
+++ b/AddDevicesDialog/devices.xlsx
@@ -61,13 +61,13 @@
     <t>cb-b3-38-6b ce 16 ec 89 72 38 27 70 4b d3 a1 F1</t>
   </si>
   <si>
-    <t>导入节点6</t>
-  </si>
-  <si>
-    <t>FFFF FF 00 11 22 34-a5</t>
-  </si>
-  <si>
-    <t>cb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB F1</t>
+    <t>导入节点8</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 34-a5</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB F1</t>
   </si>
 </sst>
 </file>
@@ -96,9 +96,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,6 +134,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -127,8 +180,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -136,20 +203,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -164,74 +232,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,181 +248,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,11 +471,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,206 +528,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/AddDevicesDialog/devices.xlsx
+++ b/AddDevicesDialog/devices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>名称</t>
   </si>
@@ -28,7 +28,7 @@
     <t>appKey</t>
   </si>
   <si>
-    <t>导入节点2</t>
+    <t>导入节点9</t>
   </si>
   <si>
     <t>测试导入节点</t>
@@ -40,7 +40,7 @@
     <t>cb b3 38 6b ce 16 ec 89 72 38 27 70 4b d3 af 72</t>
   </si>
   <si>
-    <t>导入节点3</t>
+    <t>导入节点10</t>
   </si>
   <si>
     <t>FF-FF-FF-00-11-22 33-01</t>
@@ -49,7 +49,7 @@
     <t>cb-b3-38-6b ce 16 ec 89 72 38 27 70 4b d3 b1-02</t>
   </si>
   <si>
-    <t>导入节点4</t>
+    <t>导入节点11</t>
   </si>
   <si>
     <t>测试节点</t>
@@ -61,13 +61,121 @@
     <t>cb-b3-38-6b ce 16 ec 89 72 38 27 70 4b d3 a1 F1</t>
   </si>
   <si>
-    <t>导入节点8</t>
+    <t>导入节点12</t>
   </si>
   <si>
     <t>FFFF FF 22 11 22 34-a5</t>
   </si>
   <si>
     <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB F1</t>
+  </si>
+  <si>
+    <t>导入节点13</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 34-a6</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB F2</t>
+  </si>
+  <si>
+    <t>导入节点14</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 34-a7</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB F3</t>
+  </si>
+  <si>
+    <t>导入节点15</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 34-a8</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB F4</t>
+  </si>
+  <si>
+    <t>导入节点16</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 34-a9</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB F5</t>
+  </si>
+  <si>
+    <t>导入节点17</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 34-aa</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB F6</t>
+  </si>
+  <si>
+    <t>导入节点18</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 34-ab</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB F7</t>
+  </si>
+  <si>
+    <t>导入节点19</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 34-ac</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB F8</t>
+  </si>
+  <si>
+    <t>导入节点20</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 34-ad</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB F9</t>
+  </si>
+  <si>
+    <t>导入节点21</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 34-ae</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB FA</t>
+  </si>
+  <si>
+    <t>导入节点22</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 34-af</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB FB</t>
+  </si>
+  <si>
+    <t>导入节点23</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 35-a0</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB FC</t>
+  </si>
+  <si>
+    <t>导入节点24</t>
+  </si>
+  <si>
+    <t>FFFF FF 22 11 22 36-a1</t>
+  </si>
+  <si>
+    <t>Eb-b3-38-6b ce 16 ec 91 72 38 27 70 4b d3 BB FD</t>
   </si>
 </sst>
 </file>
@@ -76,9 +184,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,6 +198,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -105,22 +220,22 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,6 +249,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -144,6 +282,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -151,7 +297,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,36 +305,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,37 +340,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,181 +356,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +541,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -447,10 +564,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -471,6 +586,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -486,26 +616,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,40 +641,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,118 +674,118 @@
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,13 +1139,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="11.6307692307692" customWidth="1"/>
@@ -1115,6 +1223,174 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
